--- a/TestData/LambdaTest.xlsx
+++ b/TestData/LambdaTest.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Product_Name</t>
   </si>
   <si>
     <t>HP</t>
-  </si>
-  <si>
-    <t>Honda</t>
   </si>
 </sst>
 </file>
@@ -89,12 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,7 +380,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,9 +399,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
